--- a/pacman-for-rl-main/games_stats.xlsx
+++ b/pacman-for-rl-main/games_stats.xlsx
@@ -1,37 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bartek\Studia\ReinforcementLearning\pacman-for-rl-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1509F93-0C46-44D6-A906-2A182882E5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>[-27.243825460049372, -132.12183379098363, 72.47569069743999, 63.935406884060185]</t>
+  </si>
+  <si>
+    <t>[-22.23823483972139, -98.53981751826929, 80.92043988662941, 53.584674180813536]</t>
+  </si>
+  <si>
+    <t>[-18.233602906290216, -118.56966459018153, 94.8539032001931, 23.073722535413435]</t>
+  </si>
+  <si>
+    <t>[-20.080864692069934, -93.18778393771507, 88.22227628967136, 28.970441845996994]</t>
+  </si>
+  <si>
+    <t>[-26.39513281202103, -149.08969781558818, 92.29162408927202, 57.49187819713323]</t>
+  </si>
+  <si>
+    <t>[-25.05562749890581, -121.31504829752991, 90.28910651804712, 44.10423010926093]</t>
+  </si>
+  <si>
+    <t>[-18.07257892939935, -91.29646579492099, 96.33388241640905, 20.475817473610693]</t>
+  </si>
+  <si>
+    <t>[-26.310630406962602, -108.59702746760937, 88.57726798960168, 56.96147860595822]</t>
+  </si>
+  <si>
+    <t>[-29.68340523961642, -172.23051860900253, 82.88978047273075, 96.7612178211564]</t>
+  </si>
+  <si>
+    <t>[-27.23885537002091, -145.94442317790813, 80.73838286105232, 57.78437642721275]</t>
+  </si>
+  <si>
+    <t>[-42.35376434104763, -218.8346185667614, 50.048456107148645, 129.21897252425842]</t>
+  </si>
+  <si>
+    <t>[-18.90377599569654, -111.93543883781294, 84.01207134728361, 36.324782910466666]</t>
+  </si>
+  <si>
+    <t>[-25.452409739401773, -133.89299610132107, 107.52562834873045, 56.42600874498885]</t>
+  </si>
+  <si>
+    <t>[-22.193913570926664, -122.77819464896936, 85.09980274181494, 51.15964632326459]</t>
+  </si>
+  <si>
+    <t>[-20.1145703943311, -108.24306430884114, 95.64220706389428, 26.44793321891754]</t>
+  </si>
+  <si>
+    <t>[-20.24297367152806, -126.57406731764635, 123.68479557216479, 11.616957670389198]</t>
+  </si>
+  <si>
+    <t>[-27.137511253977785, -116.02266798543904, 69.28872676001123, 52.83905832096038]</t>
+  </si>
+  <si>
+    <t>[-21.173978293938028, -104.73570444419856, 97.7425855192493, 28.462487618632547]</t>
+  </si>
+  <si>
+    <t>[-34.92992179112364, -183.20701991280114, 55.93237667173706, 111.3741781180056]</t>
+  </si>
+  <si>
+    <t>[-19.330971006319807, -108.78667267223304, 99.16469935140395, 26.968866731830996]</t>
+  </si>
+  <si>
+    <t>[-21.304566171119752, -98.82567355030032, 7.565089300660167, 71.02844557448473]</t>
+  </si>
+  <si>
+    <t>[-17.111849027949543, -54.53192217948911, 39.06159332374498, 47.87602749077884]</t>
+  </si>
+  <si>
+    <t>[-13.80710916808487, -78.1626157681147, 48.36149913187249, 36.35282432807539]</t>
+  </si>
+  <si>
+    <t>[-10.862246145556723, -46.46641489674453, 36.12230009351102, 21.315536831990304]</t>
+  </si>
+  <si>
+    <t>[-9.555673387925454, -27.736477669487414, 31.8196338337485, 15.856177847048519]</t>
+  </si>
+  <si>
+    <t>[-17.902702322232688, -66.15077907217203, 25.003997782247886, 50.78834230114413]</t>
+  </si>
+  <si>
+    <t>[-27.178390055649608, -129.69719595894946, 5.359593235609153, 96.35994102789412]</t>
+  </si>
+  <si>
+    <t>[-34.78052738739725, -162.1924441790815, -8.034186929606868, 126.61756252435352]</t>
+  </si>
+  <si>
+    <t>[-15.069514841249326, -72.77615273103592, 38.69580539371884, 30.91312971573502]</t>
+  </si>
+  <si>
+    <t>[-13.323282472901893, -54.594530454499896, 28.03370888184428, 31.216812269036083]</t>
+  </si>
+  <si>
+    <t>[-20.34402120931318, -95.0862439345393, 97.65010278096744, 20.434547353299042]</t>
+  </si>
+  <si>
+    <t>[-23.90917017525649, -116.49333268136728, 88.17767326329353, 35.493653525049105]</t>
+  </si>
+  <si>
+    <t>[-22.358019479955104, -105.50748433185304, 77.06760899723604, 55.187613248150804]</t>
+  </si>
+  <si>
+    <t>[-19.438601301434833, -109.38738199096173, 107.65714568572683, 29.061334810364148]</t>
+  </si>
+  <si>
+    <t>[-27.376338960933577, -133.6887445758618, 86.13594657347043, 53.90029799176014]</t>
+  </si>
+  <si>
+    <t>[-23.62484382095808, -131.39566778970365, 68.44745596309075, 59.582203767131055]</t>
+  </si>
+  <si>
+    <t>[-28.202309708801717, -133.89689872091688, 75.03793590129665, 76.50379571353383]</t>
+  </si>
+  <si>
+    <t>[-27.356566622498086, -156.54099429962864, 86.19841710222117, 46.449322421107304]</t>
+  </si>
+  <si>
+    <t>[-22.63596464422785, -124.98322720194656, 73.82394896116787, 51.80674084243453]</t>
+  </si>
+  <si>
+    <t>[-45.73568423685613, -239.81039211840172, 49.15884657546556, 163.8049799255342]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +186,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,194 +510,587 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="80.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Epoch</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Weights</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>AVG</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[-27.243825460049372, -132.12183379098363, 72.47569069743999, 63.935406884060185]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>91.23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[-22.23823483972139, -98.53981751826929, 80.92043988662941, 53.584674180813536]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>88.19</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[-18.233602906290216, -118.56966459018153, 94.8539032001931, 23.073722535413435]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>78.33</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[-20.080864692069934, -93.18778393771507, 88.22227628967136, 28.970441845996994]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>84.91</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[-26.39513281202103, -149.08969781558818, 92.29162408927202, 57.49187819713323]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
         <v>87.05</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[-25.05562749890581, -121.31504829752991, 90.28910651804712, 44.10423010926093]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
         <v>79.25</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[-18.07257892939935, -91.29646579492099, 96.33388241640905, 20.475817473610693]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>78.55</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[-26.310630406962602, -108.59702746760937, 88.57726798960168, 56.96147860595822]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>83.62</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[-29.68340523961642, -172.23051860900253, 82.88978047273075, 96.7612178211564]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
         <v>91.28</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[-27.23885537002091, -145.94442317790813, 80.73838286105232, 57.78437642721275]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
         <v>87.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>104.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>85.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>84.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>78.569999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>84.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>78.959999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>87.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>90.79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>76.069999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>99.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>86.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>78.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>91.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>88.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>92.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>78.650000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>85.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>83.97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>80.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>83.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>82.74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>82.56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37">
+        <v>95.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>97.57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>83.11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>93.53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41">
+        <v>96.34</v>
       </c>
     </row>
   </sheetData>

--- a/pacman-for-rl-main/games_stats.xlsx
+++ b/pacman-for-rl-main/games_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bartek\Studia\ReinforcementLearning\pacman-for-rl-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1509F93-0C46-44D6-A906-2A182882E5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EB3B8F-A0F1-4383-95B5-B2471A4D1CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Epoch</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>[-45.73568423685613, -239.81039211840172, 49.15884657546556, 163.8049799255342]</t>
+  </si>
+  <si>
+    <t>[-12.130781995963137, -39.519626568756244, 18.75476578548903, 31.26984105956471]</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,6 +1096,20 @@
         <v>96.34</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>100.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
